--- a/WorkBot/main/backend/ordering/Completed Orders/Johnston Paper/Johnston Paper_Triphammer_20250620.xlsx
+++ b/WorkBot/main/backend/ordering/Completed Orders/Johnston Paper/Johnston Paper_Triphammer_20250620.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,87 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>10G108024</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Bag Poly - Turkey 10x8x24 (1mil)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>101.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>LKC1220F</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Lid Cold Flat - 12/20oz (No Slot)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>48.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>48.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>711603</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>NABC Bathroom Cleaner</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>35.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>35.35</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
